--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1456536.608943963</v>
+        <v>1454649.027427561</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>525767.5559222999</v>
+        <v>122433.3574333405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>173.2113965333513</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>200.7197576120826</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>62.65405759365493</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22.11041309544153</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18.27849298661699</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>155.7977503164274</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>49.19354258233951</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>119.8897042130474</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>153.5561447847202</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>168.7154878330665</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274037</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.6511108649093</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>140.4045143601931</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>71.4462915103567</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>93.8791668113986</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170.2121813494207</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>127.7178027211458</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>174.1677741775052</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>109.5287861567404</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>178.7699890365994</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>120.8530343211901</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>143.4701497148025</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>43.21861285489525</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523557</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5399953924671479</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463104</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.084661047914</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="C2" t="n">
-        <v>1130.084661047914</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="D2" t="n">
-        <v>1130.084661047914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>744.29640844967</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>737.3509077004666</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,7 +4325,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023726</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.084661047914</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>400.4487670819043</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>400.4487670819043</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>253.5588195839939</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>932.2014054355411</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656313</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1954.952953346654</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.952953346654</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.952953346654</v>
+        <v>932.2014054355411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>649.021618007188</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>649.021618007188</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W7" t="n">
-        <v>359.6044479702274</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>593.0075012484881</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>175.043693146675</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>175.043693146675</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177207</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1937.315630222944</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.315630222944</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4887,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>268.535689181137</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>268.535689181137</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.535689181137</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5124,22 +5124,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1442.796708849623</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.181607381369</v>
+        <v>1787.31736448724</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2036.070778571203</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2556.37140030695</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.8929204411536</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>674.9567375132467</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>524.840098100911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>644.2594646985458</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.787631771461</v>
+        <v>644.2594646985458</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.787631771461</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.9950526279307</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,10 +5264,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1847.655958041207</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.753134944335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1426.74829933532</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1426.74829933532</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1202.962884124826</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1202.962884124826</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.962884124826</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>913.545714087865</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>913.545714087865</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>692.753134944335</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>454.7607297945569</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>1068.657799551446</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>1837.025945943907</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963258</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>809.2953582963258</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>588.5027791527957</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>661.6060969157199</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>416.2699138005287</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247864</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>788.2086972010437</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>533.5242089951569</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1070389581962</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>416.2699138005287</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,67 +5972,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>1138.699705022017</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>1138.699705022017</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022017</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>330.8254548799447</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>330.8254548799447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>330.8254548799447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>330.8254548799447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8254548799447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227922</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169054</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="W25" t="n">
-        <v>330.8254548799447</v>
+        <v>674.7185717878256</v>
       </c>
       <c r="X25" t="n">
-        <v>330.8254548799447</v>
+        <v>446.7290208898083</v>
       </c>
       <c r="Y25" t="n">
-        <v>330.8254548799447</v>
+        <v>446.7290208898083</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795205</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>865.585237852747</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.105893490365</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471186</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>874.927113122791</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>620.2426249169041</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018334</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>385.3661712812282</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>999.2632410381166</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899877</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.460363022717</v>
+        <v>439.5324299542204</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761808</v>
+        <v>326.3571123076845</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452158</v>
+        <v>232.0013381767197</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441933</v>
+        <v>232.0013381767197</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>140.8722559601803</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1935.580613164693</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1767.556063235569</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1534.188289730498</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.264666805982</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.608362050392</v>
+        <v>902.6804289818947</v>
       </c>
       <c r="X31" t="n">
-        <v>929.3796764337457</v>
+        <v>730.4517433652483</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715861</v>
+        <v>565.4200295030892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>463.2137177573983</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.004430061687</v>
+        <v>783.5490372871001</v>
       </c>
       <c r="N33" t="n">
         <v>1128.069692924718</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6923,31 +6923,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,10 +6959,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704855</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>618.8589595388346</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>939.1942790685364</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2473.479317744561</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N42" t="n">
-        <v>1890.372576454149</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O42" t="n">
-        <v>2559.836337756808</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P42" t="n">
-        <v>2559.836337756808</v>
+        <v>2473.479317744561</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625495</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649684</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.848946864969</v>
@@ -7837,10 +7837,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>197.125302340454</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>213.6229293626143</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>137.4682402278088</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.3627514792843</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.18086931702797</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>111.7331289636349</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51806089343609</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.61979883251658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>124.4198406026822</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>112.0695782210721</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>109.0558671953544</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>1.061991145337942</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>45.64053414218756</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43092547709092</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>143.0528486217885</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>68.07169897992509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571476</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752358</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1775579625791</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.771116669464391e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705018</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705018</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>976373.1296286485</v>
+        <v>976373.1296286486</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114797</v>
@@ -26326,7 +26326,7 @@
         <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114798</v>
@@ -26335,25 +26335,25 @@
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.3510797973</v>
+        <v>447504.351079797</v>
       </c>
       <c r="L2" t="n">
+        <v>451572.9734253561</v>
+      </c>
+      <c r="M2" t="n">
         <v>451572.9734253563</v>
       </c>
-      <c r="M2" t="n">
-        <v>451572.9734253562</v>
-      </c>
       <c r="N2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253563</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284581</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758862</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905760059</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477234</v>
+        <v>18952.41620477252</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.5809318964</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>229654.7561813275</v>
       </c>
       <c r="D6" t="n">
-        <v>229654.7561813275</v>
+        <v>229654.7561813274</v>
       </c>
       <c r="E6" t="n">
-        <v>-187803.1904047091</v>
+        <v>-187900.6495306812</v>
       </c>
       <c r="F6" t="n">
-        <v>337356.8460721873</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="G6" t="n">
-        <v>337356.8460721873</v>
+        <v>337259.386946215</v>
       </c>
       <c r="H6" t="n">
-        <v>337356.8460721873</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="I6" t="n">
-        <v>337356.8460721874</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="J6" t="n">
-        <v>160933.6268795943</v>
+        <v>160836.1677536223</v>
       </c>
       <c r="K6" t="n">
-        <v>287761.1210419565</v>
+        <v>287742.6273040216</v>
       </c>
       <c r="L6" t="n">
-        <v>320308.3798725678</v>
+        <v>320308.3798725675</v>
       </c>
       <c r="M6" t="n">
-        <v>195850.2714395972</v>
+        <v>195850.2714395975</v>
       </c>
       <c r="N6" t="n">
-        <v>330651.2866734344</v>
+        <v>330651.2866734343</v>
       </c>
       <c r="O6" t="n">
-        <v>330651.2866734346</v>
+        <v>330651.2866734345</v>
       </c>
       <c r="P6" t="n">
-        <v>286488.681370589</v>
+        <v>286488.6813705888</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,34 +26747,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,7 +26808,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,23 +27376,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>181.4716450873317</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>213.0644124087123</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>104.655744665396</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>196.4742402566532</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>346.9943987843906</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>193.4432184009856</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>237.0883316596382</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>32.04161203181384</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>195.6848239326928</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>102.6727886100651</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>117.8075105035245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529164</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31844,25 +31844,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.4090972701572</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,25 +32075,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.4090972701574</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>211.1801409386338</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,19 +32315,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.5313921984179</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>119.4431162246989</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32336,7 +32336,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32546,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>211.1801409386339</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508801</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>236.6747845419267</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>156.2519421180772</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -33032,31 +33032,31 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>258.2029732896457</v>
       </c>
       <c r="O27" t="n">
-        <v>352.8324835862114</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>164.4358785485908</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>380.4309478731432</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,43 +33336,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041508</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,19 +33491,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -33512,25 +33512,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,43 +33573,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,13 +33728,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33746,28 +33746,28 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>70.77739093025048</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>328.5774119587767</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.77739093025048</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34451,13 +34451,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>334.354828182452</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34469,7 +34469,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>492.6751721024423</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>57.14352825443252</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>564.980127098139</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>559.1808031988541</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>361.1551902366375</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>443.0141460526805</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>443.4661064622189</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111003</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>468.9607500655117</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>504.2526043782975</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>606.2036355498659</v>
       </c>
       <c r="O27" t="n">
-        <v>604.0985584184965</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686858</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>291.0596765868104</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>728.4316101333634</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686859</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.689756130335</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>75.06854958274012</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>6.126528144475494</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686859</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>140.8729045800781</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686859</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>652.1484417867583</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,10 +37707,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.38097739326282</v>
+        <v>140.8729045800781</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>566.640793706037</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
